--- a/biology/Médecine/Ménométrorragie/Ménométrorragie.xlsx
+++ b/biology/Médecine/Ménométrorragie/Ménométrorragie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nom%C3%A9trorragie</t>
+          <t>Ménométrorragie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ménométrorragie associe des saignements abondants au moment des menstruations (ménorragie) et des saignements entre les menstruations (métrorragie)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ménométrorragie associe des saignements abondants au moment des menstruations (ménorragie) et des saignements entre les menstruations (métrorragie).
 Elle se produit habituellement chez les femmes qui entament leur période reproductive ou qui l’achèvent, donc qui ont environ moins de 20 ans ou plus de 45. Ce diagnostic est posé quand toute autre cause n’est pas pertinente. On constate la ménométrorragie chez les femmes qui souffrent du syndrome de Stein-Leventhal (kystes aux ovaires), également appelé syndrome des ovaires polykystiques.
 Les femmes qui sont en dialyse ou qui utilisent un moyen de contraception intra-utérin peuvent avoir des règles abondantes et prolongées.
 La ménométrorragie s’apparente donc aux autres saignements utérins : ménorragie (hyperménorrhée, c'est-à-dire règles très abondantes), métrorragie (hémorragie utérine), polyménorrée (règles trop fréquentes).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9nom%C3%A9trorragie</t>
+          <t>Ménométrorragie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le diagnostic est tout d'abord différentiel.
 Contenu de l'interrogatoire
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9nom%C3%A9trorragie</t>
+          <t>Ménométrorragie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement dépend essentiellement de l'origine des saignements.
 Il peut être médicamenteux en cas de ménotrorragie due à un déséquilibre hormonal, mais il peut aussi être chirurgical si on détecte en fait une grossesse (extra utérine par exemple).
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9nom%C3%A9trorragie</t>
+          <t>Ménométrorragie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Recours aux services d'urgence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est nécessaire de se rendre au service des urgences en cas de :
 Si on détrempe plus d’une serviette sanitaire par heure pendant plus de deux ou trois heures ;
